--- a/informacao.xlsx
+++ b/informacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iago\Documents\Unesp\Sociais\2023\1° Semestre\Estatística - Bernardo\Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85C3B52-D891-4B08-861A-2FF241DE38C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC35B11E-3423-41B7-B1E5-B303B7B4D799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>CUMULATIVE PERCENT</t>
-  </si>
-  <si>
     <t>Valid Percent</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>10 C</t>
+  </si>
+  <si>
+    <t>Cumulative Percent</t>
   </si>
 </sst>
 </file>
@@ -286,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -294,35 +294,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -330,65 +315,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,395 +664,461 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="162.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="52.5703125" style="14" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="14"/>
+    <col min="9" max="9" width="9.28515625" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="27" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="30"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="15">
+        <v>254</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17">
+        <v>31.7</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="17">
+        <v>31.7</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="17">
+        <v>31.7</v>
+      </c>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="31">
-        <v>254</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33">
-        <v>31.7</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="33">
-        <v>31.7</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="33">
-        <v>31.7</v>
-      </c>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="19">
+        <v>62</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21">
+        <v>7.7</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="21">
+        <v>7.7</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="21">
+        <v>39.5</v>
+      </c>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="15">
-        <v>62</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17">
-        <v>7.7</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17">
-        <v>7.7</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="17">
-        <v>39.5</v>
-      </c>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="19">
+        <v>96</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21">
+        <v>12</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="21">
+        <v>12</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="21">
+        <v>51.5</v>
+      </c>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15">
-        <v>96</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17">
+      <c r="B5" s="23">
+        <v>27</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25">
+        <v>3.4</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="25">
+        <v>3.4</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="25">
+        <v>54.9</v>
+      </c>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="19">
+        <v>98</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21">
+        <v>12.2</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="21">
+        <v>12.2</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="21">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="19">
+        <v>7</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="21">
+        <v>68</v>
+      </c>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17">
+      <c r="B8" s="19">
         <v>12</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17">
-        <v>51.5</v>
-      </c>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="19">
-        <v>27</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="23">
-        <v>3.4</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="23">
-        <v>3.4</v>
-      </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="23">
-        <v>54.9</v>
-      </c>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="15">
-        <v>98</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17">
-        <v>12.2</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17">
-        <v>12.2</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="17">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="15">
-        <v>7</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="17">
-        <v>68</v>
-      </c>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="21">
+        <v>69.5</v>
+      </c>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19">
+        <v>2</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="21">
+        <v>69.7</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19">
+        <v>4</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21">
+        <v>70.2</v>
+      </c>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="19">
+        <v>15</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21">
+        <v>1.9</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="21">
+        <v>1.9</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="19">
+        <v>6</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21">
+        <v>72.8</v>
+      </c>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="19">
+        <v>5</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21">
+        <v>73.5</v>
+      </c>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="19">
+        <v>2</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="21">
+        <v>73.7</v>
+      </c>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="23">
+        <v>3</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="25">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19">
+        <v>132</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21">
+        <v>16.5</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="21">
+        <v>16.5</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="21">
+        <v>90.6</v>
+      </c>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="19">
+        <v>75</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21">
+        <v>9.4</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21">
+        <v>9.4</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="21">
+        <v>100</v>
+      </c>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15">
-        <v>12</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17">
-        <v>69.5</v>
-      </c>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="15">
-        <v>2</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="17">
-        <v>69.7</v>
-      </c>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="15">
-        <v>4</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="17">
-        <v>70.2</v>
-      </c>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="15">
-        <v>15</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17">
-        <v>1.9</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="17">
-        <v>1.9</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="17">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="15">
-        <v>6</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="17">
-        <v>72.8</v>
-      </c>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="15">
-        <v>5</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="17">
-        <v>73.5</v>
-      </c>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="15">
-        <v>2</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="17">
-        <v>73.7</v>
-      </c>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="19">
-        <v>3</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="15">
-        <v>132</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17">
-        <v>16.5</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="17">
-        <v>16.5</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="17">
-        <v>90.6</v>
-      </c>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="15">
-        <v>75</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17">
-        <v>9.4</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="17">
-        <v>9.4</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="17">
+      <c r="B18" s="28">
+        <v>800</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30">
         <v>100</v>
       </c>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="9">
-        <v>800</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11">
+      <c r="E18" s="31"/>
+      <c r="F18" s="30">
         <v>100</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="11">
-        <v>100</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13">
+      <c r="G18" s="31"/>
+      <c r="H18" s="8">
         <v>0</v>
       </c>
-      <c r="I18" s="14"/>
+      <c r="I18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -1070,70 +1127,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/informacao.xlsx
+++ b/informacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iago\Documents\Unesp\Sociais\2023\1° Semestre\Estatística - Bernardo\Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC35B11E-3423-41B7-B1E5-B303B7B4D799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE9BF4B-8D68-4AC8-BEC2-43E9015517B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,6 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>8 Revistas</t>
-  </si>
-  <si>
-    <t>9 Livros</t>
-  </si>
-  <si>
     <t>Fontes de Informação sobre direitos LGBTQIA+</t>
   </si>
   <si>
@@ -91,6 +85,12 @@
   </si>
   <si>
     <t>Cumulative Percent</t>
+  </si>
+  <si>
+    <t>8 R</t>
+  </si>
+  <si>
+    <t>9 L</t>
   </si>
 </sst>
 </file>
@@ -303,33 +303,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -340,45 +379,6 @@
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -664,397 +664,461 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="14" customWidth="1"/>
-    <col min="2" max="8" width="9.140625" style="14"/>
-    <col min="9" max="9" width="9.28515625" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="52.5703125" style="8" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="8"/>
+    <col min="9" max="9" width="9.28515625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="7"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="15">
+        <v>4</v>
+      </c>
+      <c r="B2" s="28">
         <v>254</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30">
         <v>31.7</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="17">
+      <c r="E2" s="31"/>
+      <c r="F2" s="30">
         <v>31.7</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="17">
+      <c r="G2" s="31"/>
+      <c r="H2" s="30">
         <v>31.7</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="19">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="16">
         <v>62</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21">
+      <c r="C3" s="17"/>
+      <c r="D3" s="18">
         <v>7.7</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="21">
+      <c r="E3" s="19"/>
+      <c r="F3" s="18">
         <v>7.7</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="21">
+      <c r="G3" s="19"/>
+      <c r="H3" s="18">
         <v>39.5</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="16">
+        <v>96</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18">
+        <v>12</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="18">
+        <v>12</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="18">
+        <v>51.5</v>
+      </c>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="20">
+        <v>27</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22">
+        <v>3.4</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="22">
+        <v>3.4</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22">
+        <v>54.9</v>
+      </c>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="19">
-        <v>96</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21">
+      <c r="B6" s="16">
+        <v>98</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18">
+        <v>12.2</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="18">
+        <v>12.2</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="18">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="16">
+        <v>7</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="18">
+        <v>68</v>
+      </c>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="16">
         <v>12</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="21">
-        <v>12</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="21">
-        <v>51.5</v>
-      </c>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="23">
-        <v>27</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25">
-        <v>3.4</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="25">
-        <v>3.4</v>
-      </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="25">
-        <v>54.9</v>
-      </c>
-      <c r="I5" s="26"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="19">
-        <v>98</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21">
-        <v>12.2</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="21">
-        <v>12.2</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="21">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="19">
-        <v>7</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21">
-        <v>68</v>
-      </c>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="19">
-        <v>12</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18">
         <v>1.5</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="21">
+      <c r="E8" s="19"/>
+      <c r="F8" s="18">
         <v>1.5</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="21">
+      <c r="G8" s="19"/>
+      <c r="H8" s="18">
         <v>69.5</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="19">
+      <c r="A9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="16">
         <v>2</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18">
         <v>0.2</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="21">
+      <c r="E9" s="19"/>
+      <c r="F9" s="18">
         <v>0.2</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="21">
+      <c r="G9" s="19"/>
+      <c r="H9" s="18">
         <v>69.7</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="16">
         <v>4</v>
       </c>
-      <c r="B10" s="19">
-        <v>4</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21">
+      <c r="C10" s="17"/>
+      <c r="D10" s="18">
         <v>0.5</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="21">
+      <c r="E10" s="19"/>
+      <c r="F10" s="18">
         <v>0.5</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="21">
+      <c r="G10" s="19"/>
+      <c r="H10" s="18">
         <v>70.2</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="19">
+        <v>18</v>
+      </c>
+      <c r="B11" s="16">
         <v>15</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21">
+      <c r="C11" s="17"/>
+      <c r="D11" s="18">
         <v>1.9</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="21">
+      <c r="E11" s="19"/>
+      <c r="F11" s="18">
         <v>1.9</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="21">
+      <c r="G11" s="19"/>
+      <c r="H11" s="18">
         <v>72.099999999999994</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="19">
+        <v>17</v>
+      </c>
+      <c r="B12" s="16">
         <v>6</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21">
+      <c r="C12" s="17"/>
+      <c r="D12" s="18">
         <v>0.8</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="21">
+      <c r="E12" s="19"/>
+      <c r="F12" s="18">
         <v>0.8</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="21">
+      <c r="G12" s="19"/>
+      <c r="H12" s="18">
         <v>72.8</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="19">
+      <c r="A13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="16">
         <v>5</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18">
         <v>0.7</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="21">
+      <c r="E13" s="19"/>
+      <c r="F13" s="18">
         <v>0.7</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="21">
+      <c r="G13" s="19"/>
+      <c r="H13" s="18">
         <v>73.5</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="19">
+        <v>15</v>
+      </c>
+      <c r="B14" s="16">
         <v>2</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18">
         <v>0.2</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="21">
+      <c r="E14" s="19"/>
+      <c r="F14" s="18">
         <v>0.2</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="21">
+      <c r="G14" s="19"/>
+      <c r="H14" s="18">
         <v>73.7</v>
       </c>
-      <c r="I14" s="22"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="23">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20">
         <v>3</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25">
+      <c r="C15" s="21"/>
+      <c r="D15" s="22">
         <v>0.3</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="25">
+      <c r="E15" s="23"/>
+      <c r="F15" s="22">
         <v>0.3</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="25">
+      <c r="G15" s="23"/>
+      <c r="H15" s="22">
         <v>74.099999999999994</v>
       </c>
-      <c r="I15" s="26"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="19">
+        <v>13</v>
+      </c>
+      <c r="B16" s="16">
         <v>132</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21">
+      <c r="C16" s="17"/>
+      <c r="D16" s="18">
         <v>16.5</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="21">
+      <c r="E16" s="19"/>
+      <c r="F16" s="18">
         <v>16.5</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="21">
+      <c r="G16" s="19"/>
+      <c r="H16" s="18">
         <v>90.6</v>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="19">
+        <v>12</v>
+      </c>
+      <c r="B17" s="16">
         <v>75</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21">
+      <c r="C17" s="17"/>
+      <c r="D17" s="18">
         <v>9.4</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="21">
+      <c r="E17" s="19"/>
+      <c r="F17" s="18">
         <v>9.4</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="21">
+      <c r="G17" s="19"/>
+      <c r="H17" s="18">
         <v>100</v>
       </c>
-      <c r="I17" s="22"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="28">
+      <c r="A18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="10">
         <v>800</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30">
+      <c r="C18" s="11"/>
+      <c r="D18" s="12">
         <v>100</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="30">
+      <c r="E18" s="13"/>
+      <c r="F18" s="12">
         <v>100</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="8">
+      <c r="G18" s="13"/>
+      <c r="H18" s="14">
         <v>0</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
@@ -1063,70 +1127,6 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/informacao.xlsx
+++ b/informacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iago\Documents\Unesp\Sociais\2023\1° Semestre\Estatística - Bernardo\Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE9BF4B-8D68-4AC8-BEC2-43E9015517B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7D21A8-926A-4B01-90A1-45D013D5B8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>Fontes de Informação sobre direitos LGBTQIA+</t>
-  </si>
-  <si>
     <t>1  I</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>9 L</t>
+  </si>
+  <si>
+    <t>Inform</t>
   </si>
 </sst>
 </file>
@@ -315,6 +315,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -332,54 +380,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,9 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -677,384 +675,448 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="27"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="28">
+        <v>3</v>
+      </c>
+      <c r="B2" s="14">
         <v>254</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30">
+      <c r="C2" s="15"/>
+      <c r="D2" s="16">
         <v>31.7</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="30">
+      <c r="E2" s="17"/>
+      <c r="F2" s="16">
         <v>31.7</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="30">
+      <c r="G2" s="17"/>
+      <c r="H2" s="16">
         <v>31.7</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="16">
+        <v>4</v>
+      </c>
+      <c r="B3" s="18">
         <v>62</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20">
         <v>7.7</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="18">
+      <c r="E3" s="21"/>
+      <c r="F3" s="20">
         <v>7.7</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="18">
+      <c r="G3" s="21"/>
+      <c r="H3" s="20">
         <v>39.5</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="16">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18">
         <v>96</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20">
         <v>12</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="18">
+      <c r="E4" s="21"/>
+      <c r="F4" s="20">
         <v>12</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="18">
+      <c r="G4" s="21"/>
+      <c r="H4" s="20">
         <v>51.5</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="20">
+        <v>6</v>
+      </c>
+      <c r="B5" s="22">
         <v>27</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22">
+      <c r="C5" s="23"/>
+      <c r="D5" s="24">
         <v>3.4</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="22">
+      <c r="E5" s="25"/>
+      <c r="F5" s="24">
         <v>3.4</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="22">
+      <c r="G5" s="25"/>
+      <c r="H5" s="24">
         <v>54.9</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="16">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18">
         <v>98</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18">
+      <c r="C6" s="19"/>
+      <c r="D6" s="20">
         <v>12.2</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="18">
+      <c r="E6" s="21"/>
+      <c r="F6" s="20">
         <v>12.2</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="18">
+      <c r="G6" s="21"/>
+      <c r="H6" s="20">
         <v>67.099999999999994</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="16">
+        <v>8</v>
+      </c>
+      <c r="B7" s="18">
         <v>7</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18">
+      <c r="C7" s="19"/>
+      <c r="D7" s="20">
         <v>0.9</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="18">
+      <c r="E7" s="21"/>
+      <c r="F7" s="20">
         <v>0.9</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18">
+      <c r="G7" s="21"/>
+      <c r="H7" s="20">
         <v>68</v>
       </c>
-      <c r="I7" s="19"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="16">
+        <v>9</v>
+      </c>
+      <c r="B8" s="18">
         <v>12</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18">
+      <c r="C8" s="19"/>
+      <c r="D8" s="20">
         <v>1.5</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="18">
+      <c r="E8" s="21"/>
+      <c r="F8" s="20">
         <v>1.5</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="18">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20">
         <v>69.5</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="16">
+        <v>19</v>
+      </c>
+      <c r="B9" s="18">
         <v>2</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18">
+      <c r="C9" s="19"/>
+      <c r="D9" s="20">
         <v>0.2</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18">
+      <c r="E9" s="21"/>
+      <c r="F9" s="20">
         <v>0.2</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="18">
+      <c r="G9" s="21"/>
+      <c r="H9" s="20">
         <v>69.7</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="16">
+        <v>20</v>
+      </c>
+      <c r="B10" s="18">
         <v>4</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20">
         <v>0.5</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18">
+      <c r="E10" s="21"/>
+      <c r="F10" s="20">
         <v>0.5</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="18">
+      <c r="G10" s="21"/>
+      <c r="H10" s="20">
         <v>70.2</v>
       </c>
-      <c r="I10" s="19"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="16">
+        <v>17</v>
+      </c>
+      <c r="B11" s="18">
         <v>15</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20">
         <v>1.9</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="18">
+      <c r="E11" s="21"/>
+      <c r="F11" s="20">
         <v>1.9</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="18">
+      <c r="G11" s="21"/>
+      <c r="H11" s="20">
         <v>72.099999999999994</v>
       </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="16">
+        <v>16</v>
+      </c>
+      <c r="B12" s="18">
         <v>6</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20">
         <v>0.8</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="18">
+      <c r="E12" s="21"/>
+      <c r="F12" s="20">
         <v>0.8</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="18">
+      <c r="G12" s="21"/>
+      <c r="H12" s="20">
         <v>72.8</v>
       </c>
-      <c r="I12" s="19"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="16">
+        <v>15</v>
+      </c>
+      <c r="B13" s="18">
         <v>5</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18">
+      <c r="C13" s="19"/>
+      <c r="D13" s="20">
         <v>0.7</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18">
+      <c r="E13" s="21"/>
+      <c r="F13" s="20">
         <v>0.7</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="18">
+      <c r="G13" s="21"/>
+      <c r="H13" s="20">
         <v>73.5</v>
       </c>
-      <c r="I13" s="19"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="16">
+        <v>14</v>
+      </c>
+      <c r="B14" s="18">
         <v>2</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18">
+      <c r="C14" s="19"/>
+      <c r="D14" s="20">
         <v>0.2</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="18">
+      <c r="E14" s="21"/>
+      <c r="F14" s="20">
         <v>0.2</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="18">
+      <c r="G14" s="21"/>
+      <c r="H14" s="20">
         <v>73.7</v>
       </c>
-      <c r="I14" s="19"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="20">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22">
         <v>3</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22">
+      <c r="C15" s="23"/>
+      <c r="D15" s="24">
         <v>0.3</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="22">
+      <c r="E15" s="25"/>
+      <c r="F15" s="24">
         <v>0.3</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22">
+      <c r="G15" s="25"/>
+      <c r="H15" s="24">
         <v>74.099999999999994</v>
       </c>
-      <c r="I15" s="23"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="18">
         <v>132</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18">
+      <c r="C16" s="19"/>
+      <c r="D16" s="20">
         <v>16.5</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="18">
+      <c r="E16" s="21"/>
+      <c r="F16" s="20">
         <v>16.5</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="18">
+      <c r="G16" s="21"/>
+      <c r="H16" s="20">
         <v>90.6</v>
       </c>
-      <c r="I16" s="19"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="16">
+        <v>11</v>
+      </c>
+      <c r="B17" s="18">
         <v>75</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18">
+      <c r="C17" s="19"/>
+      <c r="D17" s="20">
         <v>9.4</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="18">
+      <c r="E17" s="21"/>
+      <c r="F17" s="20">
         <v>9.4</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="18">
+      <c r="G17" s="21"/>
+      <c r="H17" s="20">
         <v>100</v>
       </c>
-      <c r="I17" s="19"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="10">
+        <v>10</v>
+      </c>
+      <c r="B18" s="26">
         <v>800</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12">
+      <c r="C18" s="27"/>
+      <c r="D18" s="28">
         <v>100</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12">
+      <c r="E18" s="29"/>
+      <c r="F18" s="28">
         <v>100</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14">
+      <c r="G18" s="29"/>
+      <c r="H18" s="30">
         <v>0</v>
       </c>
-      <c r="I18" s="15"/>
+      <c r="I18" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -1063,70 +1125,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
